--- a/TO B 业务数据(技术部)-20190626.xlsx
+++ b/TO B 业务数据(技术部)-20190626.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaogang.sun/墨迹风云/1、部门/工时统计/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaogang.sun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF340D0D-1AB4-1E4F-A566-1FE889A73626}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7DDDA8-BC1A-FC46-8247-3A929A401E36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="技术" sheetId="2" r:id="rId1"/>
@@ -19,16 +19,13 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>姓名</t>
   </si>
@@ -464,57 +461,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="技术"/>
-      <sheetName val="时间分配"/>
-      <sheetName val="统计维度"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="技术"/>
-      <sheetName val="时间分配"/>
-      <sheetName val="统计维度"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="技术"/>
-      <sheetName val="时间分配"/>
-      <sheetName val="统计维度"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1142,7 +1088,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1268,8 +1214,12 @@
       <c r="B9" s="10">
         <v>43642</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E9" s="9" t="s">
         <v>80</v>
       </c>

--- a/TO B 业务数据(技术部)-20190626.xlsx
+++ b/TO B 业务数据(技术部)-20190626.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaogang.sun/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaogang.sun/墨迹风云/Git/myProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7DDDA8-BC1A-FC46-8247-3A929A401E36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493AC595-EE2C-0948-A967-007256839B6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>姓名</t>
   </si>
@@ -308,6 +308,10 @@
   </si>
   <si>
     <t>岳彬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10h</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1088,7 +1092,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1221,7 +1225,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/TO B 业务数据(技术部)-20190626.xlsx
+++ b/TO B 业务数据(技术部)-20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaogang.sun/墨迹风云/Git/myProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493AC595-EE2C-0948-A967-007256839B6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59651660-A9E1-9F46-B868-19049815503F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>姓名</t>
   </si>
@@ -308,10 +308,6 @@
   </si>
   <si>
     <t>岳彬</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10h</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1092,7 +1088,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1225,7 +1221,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/TO B 业务数据(技术部)-20190626.xlsx
+++ b/TO B 业务数据(技术部)-20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaogang.sun/墨迹风云/Git/myProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59651660-A9E1-9F46-B868-19049815503F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6183BEFC-3576-324E-B94F-A03F80040B8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1085,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1099,7 +1099,7 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>79</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:14">
       <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>83</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:14">
       <c r="A5" s="9" t="s">
         <v>84</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>85</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>86</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>87</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>88</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>89</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>79</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:14">
       <c r="A12" s="13" t="s">
         <v>90</v>
       </c>
@@ -1261,6 +1261,11 @@
       <c r="D12" s="6"/>
       <c r="E12" s="9" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="N14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
